--- a/biology/Médecine/Hypersensibilité_dentinaire/Hypersensibilité_dentinaire.xlsx
+++ b/biology/Médecine/Hypersensibilité_dentinaire/Hypersensibilité_dentinaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hypersensibilit%C3%A9_dentinaire</t>
+          <t>Hypersensibilité_dentinaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hypersensibilité dentaire est une affection se manifestant par une douleur brève et aiguë émanant de la dentine exposée en réaction à des stimuli de nature thermique, liée à l'évaporation, tactile, osmotique ou chimique et que l'on ne peut imputer à aucune autre forme de défaut ou de pathologie dentaire (1983, groupe de travail international).
 Les stimuli possibles sont : mécaniques (brosse à dent, ongle) ; thermiques (boisson froide, air) ; chimiques (acide) ; osmotiques (sucre). 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hypersensibilit%C3%A9_dentinaire</t>
+          <t>Hypersensibilité_dentinaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Prévalence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">4 à 57 % (72 à 98 % chez les patients ayant une maladie parodontale). En effet la maladie parodontale entraîne très souvent une récession gingivale, ce qui dénude partiellement la racine. Or la racine n'est protégée que par le cément, très fin. La dentine est donc plus sensible. 
 On vit plus longtemps en conservant plus de dents, donc la prévalence augmente. 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hypersensibilit%C3%A9_dentinaire</t>
+          <t>Hypersensibilité_dentinaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic de l'hyperesthésie dentinaire est fondé essentiellement sur le ressenti du patient : accroissement de sa sensibilité dentaire à différents stimuli (température, contact de la brosse à dent ou d'autres objets, contact d'aliments sucrés ou acides).
 Un examen clinique et radiographique minutieux permet l'élimination des autres causes de douleur d'origine dentaire (carie, fracture, fêlure, pulpite) ou gingivale.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hypersensibilit%C3%A9_dentinaire</t>
+          <t>Hypersensibilité_dentinaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Mécanismes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Perméabilité dentinaire (qui est le facteur essentiel) ;
 Phénomènes hydrodynamiques = théorie hydrodynamique de Brännström ;
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hypersensibilit%C3%A9_dentinaire</t>
+          <t>Hypersensibilité_dentinaire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hyperesthésie a plusieurs origines possibles. D'une manière générale, c'est l'exposition de la dentine, tissu interne de la dent, qui est en jeu. Cette exposition de la dentine a plusieurs causes :
 usure de l'émail (en général au niveau du collet de la dent, là où la couche d'émail dentaire est la plus fine) :
@@ -637,7 +657,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hypersensibilit%C3%A9_dentinaire</t>
+          <t>Hypersensibilité_dentinaire</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -655,7 +675,9 @@
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement est d'abord étiologique, il faut supprimer la cause d'apparition de l'hyperesthésie : traitement de la maladie parodontale, obturation des lésions cervicales d'usure, prise en charge des troubles gastro-œsophagiens.
 Conseils : 
@@ -674,7 +696,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hypersensibilit%C3%A9_dentinaire</t>
+          <t>Hypersensibilité_dentinaire</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -692,7 +714,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L’hyperesthésie dentinaire cervicale : comment la gérer ? Dr S. Chala, Pr B. Chraïbi.
 Les dentifrices commercialises en grandes et moyennes surfaces - Lille2
